--- a/biology/Histoire de la zoologie et de la botanique/André_Paillot/André_Paillot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Paillot/André_Paillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Paillot</t>
+          <t>André_Paillot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Paillot, né André Louis Paillot, le 8 août 1885 à Bois-de-Gand et mort le 24 décembre 1944 à Saint-Genis-Laval, est un entomologiste français, ancien directeur de la station Entomologique  du Sud-Est.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Paillot</t>
+          <t>André_Paillot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Paillot est né le 8 août 1885 à Lemuy[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Paillot est né le 8 août 1885 à Lemuy.
 Il devient instituteur puis chargé de cours à l'École Supérieure de Mouchard, dans le Jura, il vient, en 1907, à la Faculté des Sciences de Besançon. Il y achève sa licence en sciences en 1910. Puis il commence un diplôme d'études supérieures.
 Il organise un laboratoire de recherches à Beaune, en 1911. Les résultats de ses observations sur la Cochylis et l'Eudemis, en Bourgogne, parus dans les Annales des Epiphyties, en 1913, sont ses premières publications.
 Lors de la première guerre mondiale. Il part au front comme sergent, le 27 novembre 1914, il est  blessé dans la forêt d'Apremont.
 Il est admis au Laboratoire militaire du Professeur Jules Courmont, où il travaille comme bactériologiste. Réformé, il est nommé, en 1915, Directeur de la station entomologique de Saint-Genis-Laval, près de Lyon. 
 En 1930, il est chevalier de la Légion d'honneur. En 1933, il est nommé membre correspondant de l'Académie d'Agriculture et, en 1935, il reçoit le prix Frémont de l'Académie des Sciences. En 1936, il est nommé Directeur du laboratoire de Pathologie des Invertébrés créé à la Faculté de Médecine de Lyon par l'École des Hautes Études.
-André Paillot meurt le 23 décembre 1944[1], peu après la Libération.
+André Paillot meurt le 23 décembre 1944, peu après la Libération.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Paillot</t>
+          <t>André_Paillot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un lycée agricole et agroalimentaire[2], dans le Grand Lyon, porte son nom[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un lycée agricole et agroalimentaire, dans le Grand Lyon, porte son nom.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Paillot</t>
+          <t>André_Paillot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il obtient son titre de docteur en sciences naturelles avec une thèse intitulée Les Maladies bactériennes des insectes, utilisation en agriculture des bactéries entomophytes. Il fait paraître :
-Les Maladies du ver à soie : grasserie et dysenteries, éditions du Service photographique de l'Université, Lyon, 1928[4].
+Les Maladies du ver à soie : grasserie et dysenteries, éditions du Service photographique de l'Université, Lyon, 1928.
 Traité des maladies du ver à soie, G. Doin, Paris, 1930.
 Les Insectes nuisibles des vergers et de la vigne, G. Doin, Paris, 1931.
 L'Infection chez les insectes : immunité et symbiose, imprimerie de G. Patissier, Trévoux, 1933.
